--- a/Output/summary_sorted/summary_sorted_msni_all_all.xlsx
+++ b/Output/summary_sorted/summary_sorted_msni_all_all.xlsx
@@ -917,13 +917,13 @@
     <t>Stress</t>
   </si>
   <si>
-    <t>0.722034663851851</t>
+    <t>0.0805600541167921</t>
   </si>
   <si>
     <t>No or Minimal</t>
   </si>
   <si>
-    <t>0.277452959385263</t>
+    <t>0.00765585799980532</t>
   </si>
   <si>
     <t>Most common combinations of one or more LSG(s) among households with multi-sectoral needs</t>

--- a/Output/summary_sorted/summary_sorted_msni_all_all.xlsx
+++ b/Output/summary_sorted/summary_sorted_msni_all_all.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="799">
   <si>
     <t>governorate</t>
   </si>
@@ -20,9 +20,6 @@
     <t>district</t>
   </si>
   <si>
-    <t>lsg_all</t>
-  </si>
-  <si>
     <t>lsg_education</t>
   </si>
   <si>
@@ -521,19 +518,370 @@
     <t>b7_cg</t>
   </si>
   <si>
+    <t>lsg_education_livelihoods</t>
+  </si>
+  <si>
+    <t>lsg_education_food</t>
+  </si>
+  <si>
+    <t>lsg_education_protection</t>
+  </si>
+  <si>
+    <t>lsg_education_health</t>
+  </si>
+  <si>
+    <t>lsg_education_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_protection</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_health</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_snfi</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_wash</t>
+  </si>
+  <si>
+    <t>lsg_food_protection</t>
+  </si>
+  <si>
+    <t>lsg_food_health</t>
+  </si>
+  <si>
+    <t>lsg_food_snfi</t>
+  </si>
+  <si>
+    <t>lsg_food_wash</t>
+  </si>
+  <si>
+    <t>lsg_protection_health</t>
+  </si>
+  <si>
+    <t>lsg_protection_snfi</t>
+  </si>
+  <si>
+    <t>lsg_protection_wash</t>
+  </si>
+  <si>
+    <t>lsg_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_protection</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_health</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_food_protection</t>
+  </si>
+  <si>
+    <t>lsg_education_food_health</t>
+  </si>
+  <si>
+    <t>lsg_education_food_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_food_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_protection_health</t>
+  </si>
+  <si>
+    <t>lsg_education_protection_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_protection_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_protection</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_health</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_snfi</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_protection_health</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_protection_snfi</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_protection_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_food_protection_health</t>
+  </si>
+  <si>
+    <t>lsg_food_protection_snfi</t>
+  </si>
+  <si>
+    <t>lsg_food_protection_wash</t>
+  </si>
+  <si>
+    <t>lsg_food_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_food_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_food_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_protection_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_protection_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_protection_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_protection</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_health</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_protection_health</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_protection_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_protection_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_food_protection_health</t>
+  </si>
+  <si>
+    <t>lsg_education_food_protection_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_food_protection_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_food_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_food_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_food_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_protection_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_protection_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_protection_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_protection_health</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_protection_snfi</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_protection_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_protection_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_protection_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_protection_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_food_protection_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_food_protection_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_food_protection_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_food_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_protection_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_protection_health</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_protection_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_protection_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_protection_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_protection_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_protection_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_food_protection_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_food_protection_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_food_protection_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_food_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_protection_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_protection_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_protection_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_protection_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_protection_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_food_protection_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_protection_health_snfi</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_protection_health_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_protection_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_protection_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_food_protection_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_livelihoods_food_protection_health_snfi_wash</t>
+  </si>
+  <si>
+    <t>lsg_education_livelihoods_food_protection_health_snfi_wash</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>LSG</t>
-  </si>
-  <si>
-    <t>% of households with multi-sectoral needs</t>
-  </si>
-  <si>
-    <t>categorical</t>
-  </si>
-  <si>
-    <t>0.000101100639735915</t>
   </si>
   <si>
     <t>Among households with multi-sectoral needs, % of
@@ -543,6 +891,9 @@
     <t>Education</t>
   </si>
   <si>
+    <t>categorical</t>
+  </si>
+  <si>
     <t>0.106493808729645</t>
   </si>
   <si>
@@ -1355,6 +1706,723 @@
   </si>
   <si>
     <t>0.0911086979380851</t>
+  </si>
+  <si>
+    <t>Most common combinations of one or more LSG(s) among households with multi-sectoral needs</t>
+  </si>
+  <si>
+    <t>Education Livelihoods</t>
+  </si>
+  <si>
+    <t>0.0781574976331351</t>
+  </si>
+  <si>
+    <t>Education Food</t>
+  </si>
+  <si>
+    <t>0.00493826661558562</t>
+  </si>
+  <si>
+    <t>Education Protection</t>
+  </si>
+  <si>
+    <t>0.0598411386483191</t>
+  </si>
+  <si>
+    <t>Education Health</t>
+  </si>
+  <si>
+    <t>0.0255966803146307</t>
+  </si>
+  <si>
+    <t>Education SNFI</t>
+  </si>
+  <si>
+    <t>0.0270212744160984</t>
+  </si>
+  <si>
+    <t>Education WASH</t>
+  </si>
+  <si>
+    <t>0.012355876300498</t>
+  </si>
+  <si>
+    <t>Livelihoods Food</t>
+  </si>
+  <si>
+    <t>0.0291523398906801</t>
+  </si>
+  <si>
+    <t>Livelihoods Protection</t>
+  </si>
+  <si>
+    <t>0.37886547792297</t>
+  </si>
+  <si>
+    <t>Livelihoods Health</t>
+  </si>
+  <si>
+    <t>0.102312051481561</t>
+  </si>
+  <si>
+    <t>Livelihoods SNFI</t>
+  </si>
+  <si>
+    <t>0.195542668732637</t>
+  </si>
+  <si>
+    <t>Livelihoods WASH</t>
+  </si>
+  <si>
+    <t>0.0545874700477405</t>
+  </si>
+  <si>
+    <t>Food Protection</t>
+  </si>
+  <si>
+    <t>0.0181181657702493</t>
+  </si>
+  <si>
+    <t>Food Health</t>
+  </si>
+  <si>
+    <t>0.00687607719421583</t>
+  </si>
+  <si>
+    <t>Food SNFI</t>
+  </si>
+  <si>
+    <t>0.0169881782810383</t>
+  </si>
+  <si>
+    <t>Food WASH</t>
+  </si>
+  <si>
+    <t>0.00371190488583857</t>
+  </si>
+  <si>
+    <t>Protection Health</t>
+  </si>
+  <si>
+    <t>0.0835060862773567</t>
+  </si>
+  <si>
+    <t>Protection SNFI</t>
+  </si>
+  <si>
+    <t>0.12733262781251</t>
+  </si>
+  <si>
+    <t>Protection WASH</t>
+  </si>
+  <si>
+    <t>0.0547701069484713</t>
+  </si>
+  <si>
+    <t>Health SNFI</t>
+  </si>
+  <si>
+    <t>0.0413846462066509</t>
+  </si>
+  <si>
+    <t>Health WASH</t>
+  </si>
+  <si>
+    <t>0.0168250609468079</t>
+  </si>
+  <si>
+    <t>SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.0179354717082136</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food</t>
+  </si>
+  <si>
+    <t>0.00428802852541242</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Protection</t>
+  </si>
+  <si>
+    <t>0.0439972084581057</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Health</t>
+  </si>
+  <si>
+    <t>0.0171006895372578</t>
+  </si>
+  <si>
+    <t>Education Livelihoods SNFI</t>
+  </si>
+  <si>
+    <t>0.0230071585424453</t>
+  </si>
+  <si>
+    <t>Education Livelihoods WASH</t>
+  </si>
+  <si>
+    <t>0.00995222481844361</t>
+  </si>
+  <si>
+    <t>Education Food Protection</t>
+  </si>
+  <si>
+    <t>0.00235838669378505</t>
+  </si>
+  <si>
+    <t>Education Food Health</t>
+  </si>
+  <si>
+    <t>0.0014561458858691</t>
+  </si>
+  <si>
+    <t>Education Food SNFI</t>
+  </si>
+  <si>
+    <t>0.00280825515990678</t>
+  </si>
+  <si>
+    <t>Education Food WASH</t>
+  </si>
+  <si>
+    <t>0.000487717452522549</t>
+  </si>
+  <si>
+    <t>Education Protection Health</t>
+  </si>
+  <si>
+    <t>0.0177838109877068</t>
+  </si>
+  <si>
+    <t>Education Protection SNFI</t>
+  </si>
+  <si>
+    <t>0.0143463814251051</t>
+  </si>
+  <si>
+    <t>Education Protection WASH</t>
+  </si>
+  <si>
+    <t>0.0109049200561194</t>
+  </si>
+  <si>
+    <t>Education Health SNFI</t>
+  </si>
+  <si>
+    <t>0.00596098014534767</t>
+  </si>
+  <si>
+    <t>Education Health WASH</t>
+  </si>
+  <si>
+    <t>0.00349635283029527</t>
+  </si>
+  <si>
+    <t>Education SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.0032035087906619</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Protection</t>
+  </si>
+  <si>
+    <t>0.0165785385336298</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Health</t>
+  </si>
+  <si>
+    <t>0.00584970604780106</t>
+  </si>
+  <si>
+    <t>Livelihoods Food SNFI</t>
+  </si>
+  <si>
+    <t>0.0152423388003798</t>
+  </si>
+  <si>
+    <t>Livelihoods Food WASH</t>
+  </si>
+  <si>
+    <t>0.0035269676839631</t>
+  </si>
+  <si>
+    <t>Livelihoods Protection Health</t>
+  </si>
+  <si>
+    <t>0.0638510541850511</t>
+  </si>
+  <si>
+    <t>Livelihoods Protection SNFI</t>
+  </si>
+  <si>
+    <t>0.103705877036523</t>
+  </si>
+  <si>
+    <t>Livelihoods Protection WASH</t>
+  </si>
+  <si>
+    <t>0.0363848674267146</t>
+  </si>
+  <si>
+    <t>Livelihoods Health SNFI</t>
+  </si>
+  <si>
+    <t>0.0376522117928195</t>
+  </si>
+  <si>
+    <t>Livelihoods Health WASH</t>
+  </si>
+  <si>
+    <t>0.0139711929074007</t>
+  </si>
+  <si>
+    <t>Livelihoods SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.0134024961277849</t>
+  </si>
+  <si>
+    <t>Food Protection Health</t>
+  </si>
+  <si>
+    <t>0.0030460254163625</t>
+  </si>
+  <si>
+    <t>Food Protection SNFI</t>
+  </si>
+  <si>
+    <t>0.0103751083309578</t>
+  </si>
+  <si>
+    <t>Food Protection WASH</t>
+  </si>
+  <si>
+    <t>0.00298194505236234</t>
+  </si>
+  <si>
+    <t>Food Health SNFI</t>
+  </si>
+  <si>
+    <t>0.0035914694049653</t>
+  </si>
+  <si>
+    <t>Food Health WASH</t>
+  </si>
+  <si>
+    <t>0.000899302467920704</t>
+  </si>
+  <si>
+    <t>Food SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00188438269435263</t>
+  </si>
+  <si>
+    <t>Protection Health SNFI</t>
+  </si>
+  <si>
+    <t>0.027643311570703</t>
+  </si>
+  <si>
+    <t>Protection Health WASH</t>
+  </si>
+  <si>
+    <t>0.0101728107575393</t>
+  </si>
+  <si>
+    <t>Protection SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.0118382571857679</t>
+  </si>
+  <si>
+    <t>Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00411249210052562</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Protection</t>
+  </si>
+  <si>
+    <t>0.00210480514611309</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Health</t>
+  </si>
+  <si>
+    <t>0.00126899139178168</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food SNFI</t>
+  </si>
+  <si>
+    <t>0.00230655191672737</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food WASH</t>
+  </si>
+  <si>
+    <t>0.000459686975443194</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Protection Health</t>
+  </si>
+  <si>
+    <t>0.0124915444757288</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Protection SNFI</t>
+  </si>
+  <si>
+    <t>0.0122709853319554</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Protection WASH</t>
+  </si>
+  <si>
+    <t>0.00889185751450801</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Health SNFI</t>
+  </si>
+  <si>
+    <t>0.00507285012667326</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Health WASH</t>
+  </si>
+  <si>
+    <t>0.00290899497346871</t>
+  </si>
+  <si>
+    <t>Education Livelihoods SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00292118647423079</t>
+  </si>
+  <si>
+    <t>Education Food Protection Health</t>
+  </si>
+  <si>
+    <t>0.000628961078848946</t>
+  </si>
+  <si>
+    <t>Education Food Protection SNFI</t>
+  </si>
+  <si>
+    <t>0.00171867340029705</t>
+  </si>
+  <si>
+    <t>Education Food Protection WASH</t>
+  </si>
+  <si>
+    <t>0.000477733687679306</t>
+  </si>
+  <si>
+    <t>Education Food Health SNFI</t>
+  </si>
+  <si>
+    <t>0.000947589262819515</t>
+  </si>
+  <si>
+    <t>Education Food Health WASH</t>
+  </si>
+  <si>
+    <t>0.000105807998936795</t>
+  </si>
+  <si>
+    <t>Education Food SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000464110909209394</t>
+  </si>
+  <si>
+    <t>Education Protection Health SNFI</t>
+  </si>
+  <si>
+    <t>0.0039080238261142</t>
+  </si>
+  <si>
+    <t>Education Protection Health WASH</t>
+  </si>
+  <si>
+    <t>0.00318749222841602</t>
+  </si>
+  <si>
+    <t>Education Protection SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00297920617451862</t>
+  </si>
+  <si>
+    <t>Education Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00160748193293526</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Protection Health</t>
+  </si>
+  <si>
+    <t>0.00295625167344112</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Protection SNFI</t>
+  </si>
+  <si>
+    <t>0.009869229423052</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Protection WASH</t>
+  </si>
+  <si>
+    <t>0.00287921754138939</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Health SNFI</t>
+  </si>
+  <si>
+    <t>0.00304348128182634</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Health WASH</t>
+  </si>
+  <si>
+    <t>0.000781789848913744</t>
+  </si>
+  <si>
+    <t>Livelihoods Food SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00178140906963495</t>
+  </si>
+  <si>
+    <t>Livelihoods Protection Health SNFI</t>
+  </si>
+  <si>
+    <t>0.0257460864660592</t>
+  </si>
+  <si>
+    <t>Livelihoods Protection Health WASH</t>
+  </si>
+  <si>
+    <t>0.00864195760831022</t>
+  </si>
+  <si>
+    <t>Livelihoods Protection SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00881146185430393</t>
+  </si>
+  <si>
+    <t>Livelihoods Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00371738224420959</t>
+  </si>
+  <si>
+    <t>Food Protection Health SNFI</t>
+  </si>
+  <si>
+    <t>0.00151907050895552</t>
+  </si>
+  <si>
+    <t>Food Protection Health WASH</t>
+  </si>
+  <si>
+    <t>0.000678840977506941</t>
+  </si>
+  <si>
+    <t>Food Protection SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00138557835653241</t>
+  </si>
+  <si>
+    <t>Food Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000569071330245204</t>
+  </si>
+  <si>
+    <t>Protection Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00340954489949852</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Protection Health</t>
+  </si>
+  <si>
+    <t>0.000625283570365714</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Protection SNFI</t>
+  </si>
+  <si>
+    <t>0.00149007177341956</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Protection WASH</t>
+  </si>
+  <si>
+    <t>0.000449773525987563</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Health SNFI</t>
+  </si>
+  <si>
+    <t>0.000761035904550914</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Health WASH</t>
+  </si>
+  <si>
+    <t>0.000105798419534533</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000436122300219742</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Protection Health SNFI</t>
+  </si>
+  <si>
+    <t>0.00355276615796288</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Protection Health WASH</t>
+  </si>
+  <si>
+    <t>0.00260131627069796</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Protection SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00270459688689563</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00147567179021352</t>
+  </si>
+  <si>
+    <t>Education Food Protection Health SNFI</t>
+  </si>
+  <si>
+    <t>0.000314674674761772</t>
+  </si>
+  <si>
+    <t>Education Food Protection Health WASH</t>
+  </si>
+  <si>
+    <t>0.000101109791855915</t>
+  </si>
+  <si>
+    <t>Education Food Protection SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000459229404837315</t>
+  </si>
+  <si>
+    <t>Education Food Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000105797521239046</t>
+  </si>
+  <si>
+    <t>Education Protection Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00155409174537587</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Protection Health SNFI</t>
+  </si>
+  <si>
+    <t>0.00142931685450569</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Protection Health WASH</t>
+  </si>
+  <si>
+    <t>0.00060507266989767</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Protection SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00128342230023428</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000495275076361785</t>
+  </si>
+  <si>
+    <t>Livelihoods Protection Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00304126831173815</t>
+  </si>
+  <si>
+    <t>Food Protection Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000509812141076604</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Protection Health SNFI</t>
+  </si>
+  <si>
+    <t>0.000311025158931073</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Protection Health WASH</t>
+  </si>
+  <si>
+    <t>0.000101100639735915</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Protection SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00043128225499017</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000105787943733816</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Protection Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.00142248460004866</t>
+  </si>
+  <si>
+    <t>Education Food Protection Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>Livelihoods Food Protection Health SNFI WASH</t>
+  </si>
+  <si>
+    <t>0.000436047283190197</t>
+  </si>
+  <si>
+    <t>Education Livelihoods Food Protection Health SNFI WASH</t>
   </si>
 </sst>
 </file>
@@ -1913,2041 +2981,3826 @@
       <c r="FM1" t="s">
         <v>168</v>
       </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>235</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>236</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>240</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>241</v>
+      </c>
+      <c r="II1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>284</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>296</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="L2" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="N2" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="O2" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="Q2" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="R2" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="S2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="T2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="U2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="V2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="W2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="X2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="Y2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="Z2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="AA2" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="AB2" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="AC2" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="AD2" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="AE2" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="AF2" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="AG2" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="AH2" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="AI2" t="s">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="AJ2" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="AK2" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="AL2" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="AM2" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="AN2" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="AO2" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="AP2" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="AQ2" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="AR2" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="AS2" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="AT2" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="AU2" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="AV2" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="AW2" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="AX2" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="AY2" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="AZ2" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="BA2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BB2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BC2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BD2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BE2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BF2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BG2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BH2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BI2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BJ2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BK2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BL2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BM2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="BN2" t="s">
-        <v>181</v>
+        <v>427</v>
       </c>
       <c r="BO2" t="s">
-        <v>310</v>
+        <v>427</v>
       </c>
       <c r="BP2" t="s">
-        <v>310</v>
+        <v>427</v>
       </c>
       <c r="BQ2" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="BR2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BS2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BT2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BU2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BV2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BW2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BX2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BY2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BZ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CA2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CB2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CC2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CD2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CE2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CF2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CG2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CH2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CI2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CJ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CK2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CL2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CM2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CN2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CO2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CP2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CQ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CR2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CS2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CT2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CU2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CV2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CW2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CX2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CY2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="CZ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DA2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DB2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DC2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DD2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DE2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DF2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DG2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DH2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DI2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DJ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DK2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DL2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DM2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DN2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DO2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DP2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DQ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DR2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DS2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DT2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DU2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DV2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DW2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DX2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DY2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="DZ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EA2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EB2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EC2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="ED2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EE2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EF2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EG2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EH2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EI2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EJ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EK2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EL2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EM2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EN2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EO2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EP2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EQ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="ER2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="ES2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="ET2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EU2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EV2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EW2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EX2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EY2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="EZ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FA2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FB2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FC2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FD2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FE2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FF2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FG2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FH2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FI2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FJ2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FK2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FL2" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="FM2" t="s">
-        <v>317</v>
+        <v>289</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>289</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>289</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>289</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>289</v>
+      </c>
+      <c r="II2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>289</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>289</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>289</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="L3" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="M3" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="N3" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="O3" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="Q3" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
       <c r="R3" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="S3" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="T3" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="U3" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="V3" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="W3" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="X3" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="Y3" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="Z3" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="AA3" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="AB3" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="AC3" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="AD3" t="s">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="AE3" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="AF3" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="AG3" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="AH3" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="AI3" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="AJ3" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="AK3" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="AL3" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="AM3" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="AN3" t="s">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="AO3" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="AP3" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="AQ3" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="AR3" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="AS3" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="AT3" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="AU3" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="AV3" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="AW3" t="s">
-        <v>267</v>
+        <v>384</v>
       </c>
       <c r="AX3" t="s">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="AY3" t="s">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="AZ3" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="BA3" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="BB3" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="BC3" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="BD3" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="BE3" t="s">
-        <v>281</v>
+        <v>401</v>
       </c>
       <c r="BF3" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="BG3" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="BH3" t="s">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="BI3" t="s">
-        <v>293</v>
+        <v>413</v>
       </c>
       <c r="BJ3" t="s">
-        <v>296</v>
+        <v>416</v>
       </c>
       <c r="BK3" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="BL3" t="s">
-        <v>302</v>
+        <v>422</v>
       </c>
       <c r="BM3" t="s">
-        <v>305</v>
+        <v>425</v>
       </c>
       <c r="BN3" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="BO3" t="s">
-        <v>311</v>
+        <v>430</v>
       </c>
       <c r="BP3" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
       <c r="BQ3" t="s">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="BR3" t="s">
-        <v>318</v>
+        <v>437</v>
       </c>
       <c r="BS3" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="BT3" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="BU3" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="BV3" t="s">
-        <v>320</v>
+        <v>442</v>
       </c>
       <c r="BW3" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="BX3" t="s">
-        <v>328</v>
+        <v>448</v>
       </c>
       <c r="BY3" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="BZ3" t="s">
-        <v>293</v>
+        <v>452</v>
       </c>
       <c r="CA3" t="s">
-        <v>335</v>
+        <v>455</v>
       </c>
       <c r="CB3" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="CC3" t="s">
-        <v>341</v>
+        <v>461</v>
       </c>
       <c r="CD3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CE3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CF3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CG3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CH3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CI3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CJ3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CK3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CL3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CM3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CN3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CO3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CP3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CQ3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CR3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CS3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CT3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CU3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CV3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CW3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CX3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CY3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="CZ3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DA3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DB3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DC3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DD3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DE3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DF3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DG3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DH3" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="DI3" t="s">
-        <v>344</v>
+        <v>442</v>
       </c>
       <c r="DJ3" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="DK3" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="DL3" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="DM3" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="DN3" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="DO3" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="DP3" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
       <c r="DQ3" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="DR3" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="DS3" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="DT3" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="DU3" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="DV3" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="DW3" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="DX3" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="DY3" t="s">
-        <v>328</v>
+        <v>448</v>
       </c>
       <c r="DZ3" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="EA3" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="EB3" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="EC3" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="ED3" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="EE3" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="EF3" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="EG3" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="EH3" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="EI3" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="EJ3" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="EK3" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="EL3" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="EM3" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="EN3" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="EO3" t="s">
-        <v>293</v>
+        <v>452</v>
       </c>
       <c r="EP3" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="EQ3" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="ER3" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="ES3" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="ET3" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="EU3" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="EV3" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="EW3" t="s">
-        <v>335</v>
+        <v>455</v>
       </c>
       <c r="EX3" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="EY3" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="EZ3" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="FA3" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="FB3" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="FC3" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="FD3" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="FE3" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="FF3" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="FG3" t="s">
-        <v>341</v>
+        <v>455</v>
       </c>
       <c r="FH3" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="FI3" t="s">
-        <v>341</v>
+        <v>455</v>
       </c>
       <c r="FJ3" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="FK3" t="s">
-        <v>341</v>
+        <v>455</v>
       </c>
       <c r="FL3" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="FM3" t="s">
-        <v>341</v>
+        <v>560</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>560</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>560</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>560</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>560</v>
+      </c>
+      <c r="ID3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IE3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IF3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IG3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>560</v>
+      </c>
+      <c r="II3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IK3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IM3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IO3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IY3" t="s">
+        <v>560</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JG3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JH3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JI3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JJ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JK3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JL3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JM3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JO3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JP3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JQ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JS3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JT3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JU3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JV3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JW3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JY3" t="s">
+        <v>560</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="KA3" t="s">
+        <v>560</v>
+      </c>
+      <c r="KB3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="M4" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="N4" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="O4" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="Q4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="R4" t="s">
-        <v>206</v>
+        <v>307</v>
       </c>
       <c r="S4" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="T4" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="U4" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="V4" t="s">
-        <v>196</v>
+        <v>331</v>
       </c>
       <c r="W4" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="X4" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="Y4" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="Z4" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="AA4" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="AB4" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="AC4" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="AD4" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="AE4" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="AF4" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="AG4" t="s">
-        <v>236</v>
+        <v>356</v>
       </c>
       <c r="AH4" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="AI4" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="AJ4" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="AK4" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="AL4" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="AM4" t="s">
-        <v>196</v>
+        <v>367</v>
       </c>
       <c r="AN4" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="AO4" t="s">
-        <v>253</v>
+        <v>373</v>
       </c>
       <c r="AP4" t="s">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="AQ4" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="AR4" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="AS4" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="AT4" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="AU4" t="s">
-        <v>196</v>
+        <v>382</v>
       </c>
       <c r="AV4" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="AW4" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="AX4" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="AY4" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="AZ4" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="BA4" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="BB4" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="BC4" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="BD4" t="s">
-        <v>196</v>
+        <v>399</v>
       </c>
       <c r="BE4" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="BF4" t="s">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="BG4" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="BH4" t="s">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="BI4" t="s">
-        <v>294</v>
+        <v>414</v>
       </c>
       <c r="BJ4" t="s">
-        <v>297</v>
+        <v>417</v>
       </c>
       <c r="BK4" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="BL4" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="BM4" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="BN4" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="BO4" t="s">
+        <v>430</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>432</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>435</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>307</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT4" t="s">
         <v>311</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BU4" t="s">
         <v>313</v>
       </c>
-      <c r="BQ4" t="s">
-        <v>315</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>318</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>194</v>
-      </c>
       <c r="BV4" t="s">
-        <v>196</v>
+        <v>443</v>
       </c>
       <c r="BW4" t="s">
-        <v>326</v>
+        <v>446</v>
       </c>
       <c r="BX4" t="s">
-        <v>329</v>
+        <v>449</v>
       </c>
       <c r="BY4" t="s">
-        <v>332</v>
+        <v>451</v>
       </c>
       <c r="BZ4" t="s">
-        <v>334</v>
+        <v>453</v>
       </c>
       <c r="CA4" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="CB4" t="s">
-        <v>339</v>
+        <v>459</v>
       </c>
       <c r="CC4" t="s">
-        <v>342</v>
+        <v>462</v>
       </c>
       <c r="CD4" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="CE4" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="CF4" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="CG4" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="CH4" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="CI4" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="CJ4" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="CK4" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="CL4" t="s">
-        <v>354</v>
+        <v>471</v>
       </c>
       <c r="CM4" t="s">
-        <v>354</v>
+        <v>471</v>
       </c>
       <c r="CN4" t="s">
-        <v>354</v>
+        <v>471</v>
       </c>
       <c r="CO4" t="s">
-        <v>354</v>
+        <v>471</v>
       </c>
       <c r="CP4" t="s">
-        <v>354</v>
+        <v>471</v>
       </c>
       <c r="CQ4" t="s">
-        <v>354</v>
+        <v>471</v>
       </c>
       <c r="CR4" t="s">
-        <v>354</v>
+        <v>471</v>
       </c>
       <c r="CS4" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
       <c r="CT4" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="CU4" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="CV4" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="CW4" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="CX4" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="CY4" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="CZ4" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="DA4" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
       <c r="DB4" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="DC4" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="DD4" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="DE4" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="DF4" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="DG4" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="DH4" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="DI4" t="s">
-        <v>372</v>
+        <v>498</v>
       </c>
       <c r="DJ4" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="DK4" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="DL4" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="DM4" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="DN4" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="DO4" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="DP4" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="DQ4" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="DR4" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="DS4" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="DT4" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="DU4" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="DV4" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="DW4" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="DX4" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="DY4" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="DZ4" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="EA4" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="EB4" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="EC4" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="ED4" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="EE4" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="EF4" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="EG4" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="EH4" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="EI4" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="EJ4" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="EK4" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="EL4" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="EM4" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="EN4" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="EO4" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="EP4" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="EQ4" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="ER4" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="ES4" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="ET4" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="EU4" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="EV4" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="EW4" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="EX4" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="EY4" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="EZ4" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="FA4" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="FB4" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="FC4" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="FD4" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="FE4" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="FF4" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="FG4" t="s">
-        <v>383</v>
+        <v>502</v>
       </c>
       <c r="FH4" t="s">
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="FI4" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="FJ4" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="FK4" t="s">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="FL4" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="FM4" t="s">
-        <v>395</v>
+        <v>561</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>563</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>565</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>567</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>569</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>571</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>573</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>575</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>577</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>579</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>581</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>583</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>585</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>587</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>589</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>591</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>593</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>595</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>597</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>599</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>601</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>603</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>605</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>607</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>609</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>611</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>613</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>615</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>617</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>619</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>621</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>623</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>625</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>627</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>629</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>631</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>633</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>635</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>637</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>639</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>641</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>643</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>645</v>
+      </c>
+      <c r="HD4" t="s">
+        <v>647</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>649</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>651</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>653</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>655</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>657</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>659</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>661</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>663</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>665</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>667</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>669</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>671</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>673</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>675</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>677</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>679</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>681</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>683</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>685</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>687</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>689</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>691</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>693</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>695</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>697</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>699</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>701</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>703</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>705</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>707</v>
+      </c>
+      <c r="II4" t="s">
+        <v>709</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>711</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>713</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>715</v>
+      </c>
+      <c r="IM4" t="s">
+        <v>717</v>
+      </c>
+      <c r="IN4" t="s">
+        <v>719</v>
+      </c>
+      <c r="IO4" t="s">
+        <v>721</v>
+      </c>
+      <c r="IP4" t="s">
+        <v>723</v>
+      </c>
+      <c r="IQ4" t="s">
+        <v>725</v>
+      </c>
+      <c r="IR4" t="s">
+        <v>727</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>729</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>731</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>733</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>735</v>
+      </c>
+      <c r="IW4" t="s">
+        <v>737</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>739</v>
+      </c>
+      <c r="IY4" t="s">
+        <v>741</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>743</v>
+      </c>
+      <c r="JA4" t="s">
+        <v>745</v>
+      </c>
+      <c r="JB4" t="s">
+        <v>747</v>
+      </c>
+      <c r="JC4" t="s">
+        <v>749</v>
+      </c>
+      <c r="JD4" t="s">
+        <v>751</v>
+      </c>
+      <c r="JE4" t="s">
+        <v>753</v>
+      </c>
+      <c r="JF4" t="s">
+        <v>755</v>
+      </c>
+      <c r="JG4" t="s">
+        <v>757</v>
+      </c>
+      <c r="JH4" t="s">
+        <v>759</v>
+      </c>
+      <c r="JI4" t="s">
+        <v>761</v>
+      </c>
+      <c r="JJ4" t="s">
+        <v>763</v>
+      </c>
+      <c r="JK4" t="s">
+        <v>765</v>
+      </c>
+      <c r="JL4" t="s">
+        <v>767</v>
+      </c>
+      <c r="JM4" t="s">
+        <v>769</v>
+      </c>
+      <c r="JN4" t="s">
+        <v>771</v>
+      </c>
+      <c r="JO4" t="s">
+        <v>773</v>
+      </c>
+      <c r="JP4" t="s">
+        <v>775</v>
+      </c>
+      <c r="JQ4" t="s">
+        <v>777</v>
+      </c>
+      <c r="JR4" t="s">
+        <v>779</v>
+      </c>
+      <c r="JS4" t="s">
+        <v>781</v>
+      </c>
+      <c r="JT4" t="s">
+        <v>783</v>
+      </c>
+      <c r="JU4" t="s">
+        <v>785</v>
+      </c>
+      <c r="JV4" t="s">
+        <v>787</v>
+      </c>
+      <c r="JW4" t="s">
+        <v>789</v>
+      </c>
+      <c r="JX4" t="s">
+        <v>791</v>
+      </c>
+      <c r="JY4" t="s">
+        <v>793</v>
+      </c>
+      <c r="JZ4" t="s">
+        <v>795</v>
+      </c>
+      <c r="KA4" t="s">
+        <v>796</v>
+      </c>
+      <c r="KB4" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="L5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="N5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="O5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="R5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="S5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="T5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="U5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="V5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="W5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="X5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="Y5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="Z5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AB5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AD5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AE5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AF5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AG5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AH5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AI5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AJ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AK5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AL5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AM5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AN5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AO5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AP5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AQ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AR5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AS5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AT5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AU5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AV5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AW5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AX5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AY5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="AZ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BA5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BB5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BC5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BD5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BE5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BF5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BG5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BH5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BI5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BJ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BK5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BL5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BM5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BN5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BO5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BP5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BQ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BR5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BS5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BT5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BU5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BV5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BW5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BX5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BY5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="BZ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CA5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CB5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CC5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CD5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CE5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CF5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CG5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CH5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CI5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CJ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CK5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CL5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CM5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CN5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CO5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CP5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CQ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CR5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CS5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CT5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CU5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CV5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CW5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CX5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CY5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="CZ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DA5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DB5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DC5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DD5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DE5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DF5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DG5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DH5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DI5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DJ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DK5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DL5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DM5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DN5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DO5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DP5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DQ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DR5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DS5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DT5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DU5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DV5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DW5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DX5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DY5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="DZ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EA5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EB5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EC5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="ED5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EE5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EF5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EG5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EH5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EI5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EJ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EK5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EL5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EM5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EN5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EO5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EP5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EQ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="ER5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="ES5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="ET5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EU5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EV5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EW5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EX5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EY5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="EZ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FA5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FB5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FC5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FD5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FE5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FF5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FG5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FH5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FI5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FJ5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FK5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FL5" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="FM5" t="s">
-        <v>172</v>
+        <v>292</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GT5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GV5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>292</v>
+      </c>
+      <c r="GZ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HB5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HD5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HF5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HH5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HI5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HJ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HK5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HL5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HM5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HN5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HO5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HP5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HQ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HR5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HS5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HT5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HU5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HV5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HW5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HX5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HY5" t="s">
+        <v>292</v>
+      </c>
+      <c r="HZ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IA5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IB5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IC5" t="s">
+        <v>292</v>
+      </c>
+      <c r="ID5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IE5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IF5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IG5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IH5" t="s">
+        <v>292</v>
+      </c>
+      <c r="II5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IJ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IK5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IL5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IM5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IN5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IO5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IP5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IQ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IR5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IW5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IX5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IY5" t="s">
+        <v>292</v>
+      </c>
+      <c r="IZ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JA5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JB5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JC5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JD5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JE5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JF5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JG5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JH5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JI5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JJ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JK5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JL5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JM5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JN5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JO5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JP5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JQ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JR5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JS5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JT5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JU5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JV5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JW5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JX5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JY5" t="s">
+        <v>292</v>
+      </c>
+      <c r="JZ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="KA5" t="s">
+        <v>292</v>
+      </c>
+      <c r="KB5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="6">
@@ -3958,505 +6811,862 @@
         <v>#N/A</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="K6" t="s">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="M6" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="N6" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="O6" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="Q6" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="R6" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
       <c r="S6" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
       <c r="T6" t="s">
-        <v>210</v>
+        <v>328</v>
       </c>
       <c r="U6" t="s">
-        <v>211</v>
+        <v>329</v>
       </c>
       <c r="V6" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="W6" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="X6" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="Y6" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="Z6" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="AA6" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="AB6" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="AC6" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="AD6" t="s">
-        <v>184</v>
+        <v>348</v>
       </c>
       <c r="AE6" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="AF6" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
       <c r="AG6" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="AH6" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="AI6" t="s">
-        <v>242</v>
+        <v>362</v>
       </c>
       <c r="AJ6" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="AK6" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="AL6" t="s">
-        <v>247</v>
+        <v>365</v>
       </c>
       <c r="AM6" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="AN6" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="AO6" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="AP6" t="s">
-        <v>248</v>
+        <v>375</v>
       </c>
       <c r="AQ6" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="AR6" t="s">
-        <v>260</v>
+        <v>378</v>
       </c>
       <c r="AS6" t="s">
-        <v>261</v>
+        <v>379</v>
       </c>
       <c r="AT6" t="s">
-        <v>262</v>
+        <v>380</v>
       </c>
       <c r="AU6" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
       <c r="AV6" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="AW6" t="s">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="AX6" t="s">
-        <v>263</v>
+        <v>390</v>
       </c>
       <c r="AY6" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="AZ6" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="BA6" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="BB6" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="BC6" t="s">
-        <v>279</v>
+        <v>397</v>
       </c>
       <c r="BD6" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="BE6" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="BF6" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="BG6" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
       <c r="BH6" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
       <c r="BI6" t="s">
-        <v>295</v>
+        <v>415</v>
       </c>
       <c r="BJ6" t="s">
-        <v>298</v>
+        <v>418</v>
       </c>
       <c r="BK6" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="BL6" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
       <c r="BM6" t="s">
-        <v>307</v>
+        <v>426</v>
       </c>
       <c r="BN6" t="s">
-        <v>309</v>
+        <v>429</v>
       </c>
       <c r="BO6" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="BP6" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="BQ6" t="s">
-        <v>316</v>
+        <v>436</v>
       </c>
       <c r="BR6" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="BS6" t="s">
-        <v>321</v>
+        <v>439</v>
       </c>
       <c r="BT6" t="s">
-        <v>322</v>
+        <v>440</v>
       </c>
       <c r="BU6" t="s">
-        <v>323</v>
+        <v>441</v>
       </c>
       <c r="BV6" t="s">
-        <v>324</v>
+        <v>444</v>
       </c>
       <c r="BW6" t="s">
-        <v>327</v>
+        <v>447</v>
       </c>
       <c r="BX6" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="BY6" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="BZ6" t="s">
-        <v>295</v>
+        <v>454</v>
       </c>
       <c r="CA6" t="s">
-        <v>337</v>
+        <v>457</v>
       </c>
       <c r="CB6" t="s">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="CC6" t="s">
-        <v>343</v>
+        <v>463</v>
       </c>
       <c r="CD6" t="s">
-        <v>346</v>
+        <v>464</v>
       </c>
       <c r="CE6" t="s">
-        <v>347</v>
+        <v>465</v>
       </c>
       <c r="CF6" t="s">
-        <v>348</v>
+        <v>466</v>
       </c>
       <c r="CG6" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="CH6" t="s">
-        <v>350</v>
+        <v>468</v>
       </c>
       <c r="CI6" t="s">
-        <v>351</v>
+        <v>469</v>
       </c>
       <c r="CJ6" t="s">
-        <v>352</v>
+        <v>470</v>
       </c>
       <c r="CK6" t="s">
-        <v>353</v>
+        <v>472</v>
       </c>
       <c r="CL6" t="s">
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="CM6" t="s">
-        <v>356</v>
+        <v>474</v>
       </c>
       <c r="CN6" t="s">
-        <v>357</v>
+        <v>475</v>
       </c>
       <c r="CO6" t="s">
-        <v>358</v>
+        <v>476</v>
       </c>
       <c r="CP6" t="s">
-        <v>359</v>
+        <v>477</v>
       </c>
       <c r="CQ6" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="CR6" t="s">
-        <v>361</v>
+        <v>479</v>
       </c>
       <c r="CS6" t="s">
-        <v>362</v>
+        <v>481</v>
       </c>
       <c r="CT6" t="s">
-        <v>364</v>
+        <v>482</v>
       </c>
       <c r="CU6" t="s">
-        <v>365</v>
+        <v>483</v>
       </c>
       <c r="CV6" t="s">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="CW6" t="s">
-        <v>367</v>
+        <v>485</v>
       </c>
       <c r="CX6" t="s">
-        <v>368</v>
+        <v>486</v>
       </c>
       <c r="CY6" t="s">
-        <v>369</v>
+        <v>487</v>
       </c>
       <c r="CZ6" t="s">
-        <v>370</v>
+        <v>488</v>
       </c>
       <c r="DA6" t="s">
-        <v>371</v>
+        <v>490</v>
       </c>
       <c r="DB6" t="s">
-        <v>373</v>
+        <v>491</v>
       </c>
       <c r="DC6" t="s">
-        <v>374</v>
+        <v>492</v>
       </c>
       <c r="DD6" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="DE6" t="s">
-        <v>376</v>
+        <v>494</v>
       </c>
       <c r="DF6" t="s">
-        <v>377</v>
+        <v>495</v>
       </c>
       <c r="DG6" t="s">
-        <v>378</v>
+        <v>496</v>
       </c>
       <c r="DH6" t="s">
-        <v>379</v>
+        <v>497</v>
       </c>
       <c r="DI6" t="s">
-        <v>380</v>
+        <v>499</v>
       </c>
       <c r="DJ6" t="s">
-        <v>382</v>
+        <v>501</v>
       </c>
       <c r="DK6" t="s">
-        <v>384</v>
+        <v>503</v>
       </c>
       <c r="DL6" t="s">
-        <v>386</v>
+        <v>505</v>
       </c>
       <c r="DM6" t="s">
-        <v>388</v>
+        <v>507</v>
       </c>
       <c r="DN6" t="s">
-        <v>390</v>
+        <v>509</v>
       </c>
       <c r="DO6" t="s">
-        <v>392</v>
+        <v>511</v>
       </c>
       <c r="DP6" t="s">
-        <v>394</v>
+        <v>513</v>
       </c>
       <c r="DQ6" t="s">
-        <v>396</v>
+        <v>514</v>
       </c>
       <c r="DR6" t="s">
-        <v>397</v>
+        <v>515</v>
       </c>
       <c r="DS6" t="s">
-        <v>398</v>
+        <v>516</v>
       </c>
       <c r="DT6" t="s">
-        <v>399</v>
+        <v>517</v>
       </c>
       <c r="DU6" t="s">
-        <v>400</v>
+        <v>518</v>
       </c>
       <c r="DV6" t="s">
-        <v>401</v>
+        <v>519</v>
       </c>
       <c r="DW6" t="s">
-        <v>402</v>
+        <v>520</v>
       </c>
       <c r="DX6" t="s">
-        <v>403</v>
+        <v>521</v>
       </c>
       <c r="DY6" t="s">
-        <v>404</v>
+        <v>522</v>
       </c>
       <c r="DZ6" t="s">
-        <v>405</v>
+        <v>523</v>
       </c>
       <c r="EA6" t="s">
-        <v>406</v>
+        <v>524</v>
       </c>
       <c r="EB6" t="s">
-        <v>407</v>
+        <v>525</v>
       </c>
       <c r="EC6" t="s">
-        <v>408</v>
+        <v>526</v>
       </c>
       <c r="ED6" t="s">
-        <v>409</v>
+        <v>527</v>
       </c>
       <c r="EE6" t="s">
-        <v>410</v>
+        <v>528</v>
       </c>
       <c r="EF6" t="s">
-        <v>411</v>
+        <v>529</v>
       </c>
       <c r="EG6" t="s">
+        <v>530</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>531</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>532</v>
+      </c>
+      <c r="EJ6" t="s">
         <v>412</v>
       </c>
-      <c r="EH6" t="s">
-        <v>413</v>
-      </c>
-      <c r="EI6" t="s">
-        <v>414</v>
-      </c>
-      <c r="EJ6" t="s">
-        <v>415</v>
-      </c>
       <c r="EK6" t="s">
-        <v>295</v>
+        <v>533</v>
       </c>
       <c r="EL6" t="s">
-        <v>416</v>
+        <v>534</v>
       </c>
       <c r="EM6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="EN6" t="s">
-        <v>295</v>
+        <v>535</v>
       </c>
       <c r="EO6" t="s">
-        <v>418</v>
+        <v>536</v>
       </c>
       <c r="EP6" t="s">
-        <v>419</v>
+        <v>537</v>
       </c>
       <c r="EQ6" t="s">
-        <v>420</v>
+        <v>538</v>
       </c>
       <c r="ER6" t="s">
-        <v>421</v>
+        <v>539</v>
       </c>
       <c r="ES6" t="s">
-        <v>422</v>
+        <v>540</v>
       </c>
       <c r="ET6" t="s">
-        <v>423</v>
+        <v>541</v>
       </c>
       <c r="EU6" t="s">
-        <v>424</v>
+        <v>542</v>
       </c>
       <c r="EV6" t="s">
-        <v>425</v>
+        <v>543</v>
       </c>
       <c r="EW6" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="EX6" t="s">
-        <v>427</v>
+        <v>545</v>
       </c>
       <c r="EY6" t="s">
-        <v>428</v>
+        <v>546</v>
       </c>
       <c r="EZ6" t="s">
-        <v>429</v>
+        <v>547</v>
       </c>
       <c r="FA6" t="s">
-        <v>430</v>
+        <v>548</v>
       </c>
       <c r="FB6" t="s">
-        <v>431</v>
+        <v>549</v>
       </c>
       <c r="FC6" t="s">
-        <v>432</v>
+        <v>550</v>
       </c>
       <c r="FD6" t="s">
-        <v>433</v>
+        <v>551</v>
       </c>
       <c r="FE6" t="s">
-        <v>434</v>
+        <v>552</v>
       </c>
       <c r="FF6" t="s">
-        <v>435</v>
+        <v>553</v>
       </c>
       <c r="FG6" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="FH6" t="s">
-        <v>437</v>
+        <v>555</v>
       </c>
       <c r="FI6" t="s">
-        <v>438</v>
+        <v>556</v>
       </c>
       <c r="FJ6" t="s">
-        <v>439</v>
+        <v>557</v>
       </c>
       <c r="FK6" t="s">
-        <v>440</v>
+        <v>558</v>
       </c>
       <c r="FL6" t="s">
-        <v>441</v>
+        <v>559</v>
       </c>
       <c r="FM6" t="s">
-        <v>442</v>
+        <v>562</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>564</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>566</v>
+      </c>
+      <c r="FP6" t="s">
+        <v>568</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>570</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>572</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>574</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>576</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>578</v>
+      </c>
+      <c r="FV6" t="s">
+        <v>580</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>582</v>
+      </c>
+      <c r="FX6" t="s">
+        <v>584</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>586</v>
+      </c>
+      <c r="FZ6" t="s">
+        <v>588</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>590</v>
+      </c>
+      <c r="GB6" t="s">
+        <v>592</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>594</v>
+      </c>
+      <c r="GD6" t="s">
+        <v>596</v>
+      </c>
+      <c r="GE6" t="s">
+        <v>598</v>
+      </c>
+      <c r="GF6" t="s">
+        <v>600</v>
+      </c>
+      <c r="GG6" t="s">
+        <v>602</v>
+      </c>
+      <c r="GH6" t="s">
+        <v>604</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>606</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>608</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>610</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>612</v>
+      </c>
+      <c r="GM6" t="s">
+        <v>614</v>
+      </c>
+      <c r="GN6" t="s">
+        <v>616</v>
+      </c>
+      <c r="GO6" t="s">
+        <v>618</v>
+      </c>
+      <c r="GP6" t="s">
+        <v>620</v>
+      </c>
+      <c r="GQ6" t="s">
+        <v>622</v>
+      </c>
+      <c r="GR6" t="s">
+        <v>624</v>
+      </c>
+      <c r="GS6" t="s">
+        <v>626</v>
+      </c>
+      <c r="GT6" t="s">
+        <v>628</v>
+      </c>
+      <c r="GU6" t="s">
+        <v>630</v>
+      </c>
+      <c r="GV6" t="s">
+        <v>632</v>
+      </c>
+      <c r="GW6" t="s">
+        <v>634</v>
+      </c>
+      <c r="GX6" t="s">
+        <v>636</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>638</v>
+      </c>
+      <c r="GZ6" t="s">
+        <v>640</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>642</v>
+      </c>
+      <c r="HB6" t="s">
+        <v>644</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>646</v>
+      </c>
+      <c r="HD6" t="s">
+        <v>648</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>650</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>652</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>654</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>656</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>658</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>660</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>662</v>
+      </c>
+      <c r="HL6" t="s">
+        <v>664</v>
+      </c>
+      <c r="HM6" t="s">
+        <v>666</v>
+      </c>
+      <c r="HN6" t="s">
+        <v>668</v>
+      </c>
+      <c r="HO6" t="s">
+        <v>670</v>
+      </c>
+      <c r="HP6" t="s">
+        <v>672</v>
+      </c>
+      <c r="HQ6" t="s">
+        <v>674</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>676</v>
+      </c>
+      <c r="HS6" t="s">
+        <v>678</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>680</v>
+      </c>
+      <c r="HU6" t="s">
+        <v>682</v>
+      </c>
+      <c r="HV6" t="s">
+        <v>684</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>686</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>688</v>
+      </c>
+      <c r="HY6" t="s">
+        <v>690</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>692</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>694</v>
+      </c>
+      <c r="IB6" t="s">
+        <v>696</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>698</v>
+      </c>
+      <c r="ID6" t="s">
+        <v>700</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>702</v>
+      </c>
+      <c r="IF6" t="s">
+        <v>704</v>
+      </c>
+      <c r="IG6" t="s">
+        <v>706</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>708</v>
+      </c>
+      <c r="II6" t="s">
+        <v>710</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>712</v>
+      </c>
+      <c r="IK6" t="s">
+        <v>714</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>716</v>
+      </c>
+      <c r="IM6" t="s">
+        <v>718</v>
+      </c>
+      <c r="IN6" t="s">
+        <v>720</v>
+      </c>
+      <c r="IO6" t="s">
+        <v>722</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>724</v>
+      </c>
+      <c r="IQ6" t="s">
+        <v>726</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>728</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>730</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>732</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>734</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>736</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>738</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>740</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>742</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>744</v>
+      </c>
+      <c r="JA6" t="s">
+        <v>746</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>748</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>750</v>
+      </c>
+      <c r="JD6" t="s">
+        <v>752</v>
+      </c>
+      <c r="JE6" t="s">
+        <v>754</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>756</v>
+      </c>
+      <c r="JG6" t="s">
+        <v>758</v>
+      </c>
+      <c r="JH6" t="s">
+        <v>760</v>
+      </c>
+      <c r="JI6" t="s">
+        <v>762</v>
+      </c>
+      <c r="JJ6" t="s">
+        <v>764</v>
+      </c>
+      <c r="JK6" t="s">
+        <v>766</v>
+      </c>
+      <c r="JL6" t="s">
+        <v>768</v>
+      </c>
+      <c r="JM6" t="s">
+        <v>770</v>
+      </c>
+      <c r="JN6" t="s">
+        <v>772</v>
+      </c>
+      <c r="JO6" t="s">
+        <v>774</v>
+      </c>
+      <c r="JP6" t="s">
+        <v>776</v>
+      </c>
+      <c r="JQ6" t="s">
+        <v>778</v>
+      </c>
+      <c r="JR6" t="s">
+        <v>780</v>
+      </c>
+      <c r="JS6" t="s">
+        <v>782</v>
+      </c>
+      <c r="JT6" t="s">
+        <v>784</v>
+      </c>
+      <c r="JU6" t="s">
+        <v>786</v>
+      </c>
+      <c r="JV6" t="s">
+        <v>788</v>
+      </c>
+      <c r="JW6" t="s">
+        <v>790</v>
+      </c>
+      <c r="JX6" t="s">
+        <v>792</v>
+      </c>
+      <c r="JY6" t="s">
+        <v>794</v>
+      </c>
+      <c r="JZ6" t="s">
+        <v>766</v>
+      </c>
+      <c r="KA6" t="s">
+        <v>797</v>
+      </c>
+      <c r="KB6" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
